--- a/cablage.xlsx
+++ b/cablage.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Bureau\cablage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Documents\projets\cable_maker_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF360A13-A406-4222-8C67-8A84E18C8D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B5EBB2-5388-46F3-BF14-1F5021F01C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cables" sheetId="3" r:id="rId1"/>
@@ -670,7 +670,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,7 +858,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="D8" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,7 +1090,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF81E09-7BBF-4E8D-96D2-E8E7143C86EF}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/cablage.xlsx
+++ b/cablage.xlsx
@@ -5,34 +5,47 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\OneDrive\Documents\projets\cable_maker_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vince\Desktop\cable_maker_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B5EBB2-5388-46F3-BF14-1F5021F01C3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6108786F-8280-4F84-BF97-71822102A820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7020" windowWidth="29040" windowHeight="15840" tabRatio="718" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cables" sheetId="3" r:id="rId1"/>
-    <sheet name="Types Connecteurs" sheetId="1" r:id="rId2"/>
-    <sheet name="Types Pins" sheetId="6" r:id="rId3"/>
-    <sheet name="Pins" sheetId="10" r:id="rId4"/>
-    <sheet name="Connecteurs" sheetId="4" r:id="rId5"/>
+    <sheet name="Connecteurs" sheetId="4" r:id="rId2"/>
+    <sheet name="Types Connecteurs" sheetId="1" r:id="rId3"/>
+    <sheet name="Types Pins" sheetId="6" r:id="rId4"/>
+    <sheet name="Pins" sheetId="10" r:id="rId5"/>
     <sheet name="Fils" sheetId="11" r:id="rId6"/>
-    <sheet name="Connections" sheetId="7" r:id="rId7"/>
-    <sheet name="Types Cables" sheetId="9" r:id="rId8"/>
+    <sheet name="Composants" sheetId="13" r:id="rId7"/>
+    <sheet name="Connections" sheetId="7" r:id="rId8"/>
+    <sheet name="Types Cables" sheetId="9" r:id="rId9"/>
+    <sheet name="Couleurs" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="100">
   <si>
     <t>ID</t>
   </si>
@@ -40,21 +53,12 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t>Filename SVG</t>
-  </si>
-  <si>
     <t>Cable batterie</t>
   </si>
   <si>
     <t>NR0754</t>
   </si>
   <si>
-    <t>Filename PDF</t>
-  </si>
-  <si>
     <t>Longeur</t>
   </si>
   <si>
@@ -136,12 +140,6 @@
     <t>+</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Pin banane male</t>
-  </si>
-  <si>
     <t>Pin molex femelle</t>
   </si>
   <si>
@@ -169,24 +167,6 @@
     <t>MANCHON THERMO IMPRIME « NR0754 »</t>
   </si>
   <si>
-    <t>Edge de cable batterie NR0754</t>
-  </si>
-  <si>
-    <t>Pin 1A Pin molex femelle</t>
-  </si>
-  <si>
-    <t>Pin 2B Pin molex femelle</t>
-  </si>
-  <si>
-    <t>Pin 3C Pin molex femelle</t>
-  </si>
-  <si>
-    <t>Pin 1+ Pin banane male</t>
-  </si>
-  <si>
-    <t>Pin 2- Pin banane male</t>
-  </si>
-  <si>
     <t>GND</t>
   </si>
   <si>
@@ -199,24 +179,6 @@
     <t>From Connecteur</t>
   </si>
   <si>
-    <t>x_pos</t>
-  </si>
-  <si>
-    <t>y_pos</t>
-  </si>
-  <si>
-    <t>Vin cable batterie output</t>
-  </si>
-  <si>
-    <t>GND cable batterie output</t>
-  </si>
-  <si>
-    <t>Vin cable batterie input</t>
-  </si>
-  <si>
-    <t>GND cable batterie input</t>
-  </si>
-  <si>
     <t>Vin Batt</t>
   </si>
   <si>
@@ -227,6 +189,162 @@
   </si>
   <si>
     <t>black</t>
+  </si>
+  <si>
+    <t>FAISCEAU COMMUTATEUR M/A</t>
+  </si>
+  <si>
+    <t>NR0521</t>
+  </si>
+  <si>
+    <t>FICHE MALE 1 X 3PTSMOLEX MICROFIT 3.0</t>
+  </si>
+  <si>
+    <t>NTERRUPTEUR UNIPOLAIRE</t>
+  </si>
+  <si>
+    <t>Interrupteur</t>
+  </si>
+  <si>
+    <t>Fiche à souder</t>
+  </si>
+  <si>
+    <t>Faisceau commutateur - Interrupteur</t>
+  </si>
+  <si>
+    <t>Faisceau commutateur - Molex 3 pts</t>
+  </si>
+  <si>
+    <t>Vbat</t>
+  </si>
+  <si>
+    <t>SW_NO</t>
+  </si>
+  <si>
+    <t>SW_COM</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>MANCHON THERMOIMPRIME«NR0521»</t>
+  </si>
+  <si>
+    <t>Cable MANCHONS THERMO LONG</t>
+  </si>
+  <si>
+    <t>MANCHON THERMOIMPRIME «M/A»</t>
+  </si>
+  <si>
+    <t>CableY XT30</t>
+  </si>
+  <si>
+    <t>Connecteur de puissance XT30 male</t>
+  </si>
+  <si>
+    <t>Connecteur de puissance XT30 femelle</t>
+  </si>
+  <si>
+    <t>XT30 M</t>
+  </si>
+  <si>
+    <t>XT30 F</t>
+  </si>
+  <si>
+    <t>Pin banane male pour XT30</t>
+  </si>
+  <si>
+    <t>XT30 - 1 cable Y</t>
+  </si>
+  <si>
+    <t>XT30 - 2 cable Y</t>
+  </si>
+  <si>
+    <t>XT30 - 3 cable Y</t>
+  </si>
+  <si>
+    <t>Pin banane femelle pour XT30</t>
+  </si>
+  <si>
+    <t>Soudure directe sans fils</t>
+  </si>
+  <si>
+    <t>Sans cable</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>Pin molex femelle 1 A</t>
+  </si>
+  <si>
+    <t>Pin molex femelle 3 C</t>
+  </si>
+  <si>
+    <t>Fiche à souder 1 1</t>
+  </si>
+  <si>
+    <t>Fiche à souder 2 2</t>
+  </si>
+  <si>
+    <t>Fiche à souder 3 3</t>
+  </si>
+  <si>
+    <t>Pin banane male pour XT60</t>
+  </si>
+  <si>
+    <t>Pin banane femelle pour XT60</t>
+  </si>
+  <si>
+    <t>Pin banane male pour XT60 1 +</t>
+  </si>
+  <si>
+    <t>Pin banane male pour XT60 2 GND</t>
+  </si>
+  <si>
+    <t>Pin molex femelle 1 1</t>
+  </si>
+  <si>
+    <t>Pin molex femelle 2 2</t>
+  </si>
+  <si>
+    <t>Pin molex femelle 3 3</t>
+  </si>
+  <si>
+    <t>Pin banane male pour XT30 1 +</t>
+  </si>
+  <si>
+    <t>Pin banane male pour XT30 2 GND</t>
+  </si>
+  <si>
+    <t>Pin banane femelle pour XT30 1 +</t>
+  </si>
+  <si>
+    <t>Pin banane femelle pour XT30 2 GND</t>
+  </si>
+  <si>
+    <t>_Composant</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Diode</t>
+  </si>
+  <si>
+    <t>Resistance</t>
+  </si>
+  <si>
+    <t>sdfdsdf</t>
+  </si>
+  <si>
+    <t>ssff</t>
   </si>
 </sst>
 </file>
@@ -268,8 +386,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -288,66 +407,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{097116D1-41ED-4956-B64A-EAD0256DEB1C}" name="Tableau6" displayName="Tableau6" ref="A1:C12" totalsRowShown="0">
-  <autoFilter ref="A1:C12" xr:uid="{097116D1-41ED-4956-B64A-EAD0256DEB1C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{097116D1-41ED-4956-B64A-EAD0256DEB1C}" name="Tableau6" displayName="Tableau6" ref="A1:C5" totalsRowShown="0">
+  <autoFilter ref="A1:C5" xr:uid="{097116D1-41ED-4956-B64A-EAD0256DEB1C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{486A3CD9-A5EE-4637-AF6D-5C1073E0AABD}" name="ID"/>
     <tableColumn id="2" xr3:uid="{298FD9CB-6487-403E-A50D-78D98B2A2742}" name="Nom"/>
-    <tableColumn id="7" xr3:uid="{96276B36-F62D-447D-980D-D558D63E19EB}" name="Reference"/>
+    <tableColumn id="7" xr3:uid="{96276B36-F62D-447D-980D-D558D63E19EB}" name="Reference Interne"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83B5B034-DBEF-4CCC-974C-012578E7291E}" name="Tableau1" displayName="Tableau1" ref="A1:B10" totalsRowShown="0">
+  <autoFilter ref="A1:B10" xr:uid="{83B5B034-DBEF-4CCC-974C-012578E7291E}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1C722622-7B37-4B35-8575-6646C20BE862}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{054D2113-8F39-4917-9CF5-C5A7D1FCC187}" name="Nom"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A0908B06-33D3-4FA7-A8D6-9E6ABA036B79}" name="Tableau2" displayName="Tableau2" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13" xr:uid="{A0908B06-33D3-4FA7-A8D6-9E6ABA036B79}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6EFC214E-36C2-4070-BE58-A9D251DB1742}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{4B63CDA2-A762-40D7-A595-0A452DFA1B86}" name="Nom"/>
-    <tableColumn id="10" xr3:uid="{E8C14F68-6673-4D27-8773-D99785DB306A}" name="Genre"/>
-    <tableColumn id="6" xr3:uid="{2829EB80-4C6E-4246-8E79-BCC78669E7A8}" name="Reference Fabricant"/>
-    <tableColumn id="7" xr3:uid="{D7145FCB-33B2-4399-8FEC-4374FEC1F2F4}" name="Reference interne"/>
-    <tableColumn id="5" xr3:uid="{8A0D9544-2410-43D3-BE70-8F17B7CC3DA5}" name="Filename PDF"/>
-    <tableColumn id="4" xr3:uid="{DD08357F-B5D7-4E6F-BFBD-55C6DDF946DE}" name="Filename SVG"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C1BB92F6-CB5B-4009-AAED-C79D7407F139}" name="Tableau5" displayName="Tableau5" ref="A1:E5" totalsRowShown="0">
-  <autoFilter ref="A1:E5" xr:uid="{C1BB92F6-CB5B-4009-AAED-C79D7407F139}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{A468C125-3D62-4E81-99DF-1ACC524F0576}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{3C586FBF-D6F3-4FA2-BC62-BA55B4912787}" name="Nom"/>
-    <tableColumn id="5" xr3:uid="{EEC98090-FB78-4B55-9FC3-5543326EC8BE}" name="Reference Fabricant"/>
-    <tableColumn id="3" xr3:uid="{29354602-E36F-42DA-A0D6-71A7AD36888C}" name="Reference Interne"/>
-    <tableColumn id="6" xr3:uid="{83DD65E7-FF49-4B0C-974F-BFA350F3B9E6}" name="Filename SVG"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{496A10FF-28B1-4FBE-9419-504F78DD78B4}" name="Tableau10" displayName="Tableau10" ref="A1:G16" totalsRowShown="0">
-  <autoFilter ref="A1:G16" xr:uid="{496A10FF-28B1-4FBE-9419-504F78DD78B4}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{AAB44B08-51D4-4D76-8DA3-57BF01AD5D67}" name="ID"/>
-    <tableColumn id="7" xr3:uid="{85322AEC-2203-47F6-ABFE-308E0AFDE3CD}" name="Nom"/>
-    <tableColumn id="6" xr3:uid="{65F6ABAD-A52F-4D10-9CF9-C1F06682DCC8}" name="Numero"/>
-    <tableColumn id="3" xr3:uid="{46C58BBF-BED6-41E0-B917-BE36E95FD276}" name="Label"/>
-    <tableColumn id="4" xr3:uid="{3374057C-A787-4BB3-A2A5-6F68F0CC39F5}" name="_Type Pin"/>
-    <tableColumn id="8" xr3:uid="{9BC542B1-C7B6-4709-94F9-B2D5116B60E4}" name="x_pos"/>
-    <tableColumn id="9" xr3:uid="{A9568984-9DAE-47D5-9C4D-5FFB8ABEF47C}" name="y_pos"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ADD81072-CB91-4330-B007-902E1ECCC902}" name="Tableau3" displayName="Tableau3" ref="A1:C7" totalsRowShown="0">
-  <autoFilter ref="A1:C7" xr:uid="{ADD81072-CB91-4330-B007-902E1ECCC902}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{ADD81072-CB91-4330-B007-902E1ECCC902}" name="Tableau3" displayName="Tableau3" ref="A1:C18" totalsRowShown="0">
+  <autoFilter ref="A1:C18" xr:uid="{ADD81072-CB91-4330-B007-902E1ECCC902}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{2D89AE32-4BA0-466B-9B6C-9380E4913BAB}" name="ID"/>
     <tableColumn id="7" xr3:uid="{B532B560-9F4D-4297-943D-0F495C5DDB3C}" name="Nom"/>
@@ -357,25 +441,84 @@
 </table>
 </file>
 
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A0908B06-33D3-4FA7-A8D6-9E6ABA036B79}" name="Tableau2" displayName="Tableau2" ref="A1:E13" totalsRowShown="0">
+  <autoFilter ref="A1:E13" xr:uid="{A0908B06-33D3-4FA7-A8D6-9E6ABA036B79}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6EFC214E-36C2-4070-BE58-A9D251DB1742}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{4B63CDA2-A762-40D7-A595-0A452DFA1B86}" name="Nom"/>
+    <tableColumn id="10" xr3:uid="{E8C14F68-6673-4D27-8773-D99785DB306A}" name="Genre"/>
+    <tableColumn id="6" xr3:uid="{2829EB80-4C6E-4246-8E79-BCC78669E7A8}" name="Reference Fabricant"/>
+    <tableColumn id="7" xr3:uid="{D7145FCB-33B2-4399-8FEC-4374FEC1F2F4}" name="Reference interne"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C1BB92F6-CB5B-4009-AAED-C79D7407F139}" name="Tableau5" displayName="Tableau5" ref="A1:D17" totalsRowShown="0">
+  <autoFilter ref="A1:D17" xr:uid="{C1BB92F6-CB5B-4009-AAED-C79D7407F139}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A468C125-3D62-4E81-99DF-1ACC524F0576}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{3C586FBF-D6F3-4FA2-BC62-BA55B4912787}" name="Nom"/>
+    <tableColumn id="5" xr3:uid="{EEC98090-FB78-4B55-9FC3-5543326EC8BE}" name="Reference Fabricant"/>
+    <tableColumn id="3" xr3:uid="{29354602-E36F-42DA-A0D6-71A7AD36888C}" name="Reference Interne"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{496A10FF-28B1-4FBE-9419-504F78DD78B4}" name="Tableau10" displayName="Tableau10" ref="A1:E25" totalsRowShown="0">
+  <autoFilter ref="A1:E25" xr:uid="{496A10FF-28B1-4FBE-9419-504F78DD78B4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{AAB44B08-51D4-4D76-8DA3-57BF01AD5D67}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{85322AEC-2203-47F6-ABFE-308E0AFDE3CD}" name="Nom"/>
+    <tableColumn id="6" xr3:uid="{65F6ABAD-A52F-4D10-9CF9-C1F06682DCC8}" name="Numero"/>
+    <tableColumn id="3" xr3:uid="{46C58BBF-BED6-41E0-B917-BE36E95FD276}" name="Label"/>
+    <tableColumn id="4" xr3:uid="{3374057C-A787-4BB3-A2A5-6F68F0CC39F5}" name="_Type Pin"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9865CF6-F58D-4E5F-8553-B108CC0F3FF4}" name="Tableau11" displayName="Tableau11" ref="A1:F10" totalsRowShown="0">
-  <autoFilter ref="A1:F10" xr:uid="{A9865CF6-F58D-4E5F-8553-B108CC0F3FF4}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{A9865CF6-F58D-4E5F-8553-B108CC0F3FF4}" name="Tableau11" displayName="Tableau11" ref="A1:G17" totalsRowShown="0">
+  <autoFilter ref="A1:G17" xr:uid="{A9865CF6-F58D-4E5F-8553-B108CC0F3FF4}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B8B2DF43-1F84-4EC2-99B5-9D482168B744}" name="ID"/>
-    <tableColumn id="2" xr3:uid="{EE46068B-5FA2-4E39-BFB0-231C37013689}" name="Nom"/>
+    <tableColumn id="2" xr3:uid="{EE46068B-5FA2-4E39-BFB0-231C37013689}" name="Nom">
+      <calculatedColumnFormula>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="3" xr3:uid="{30ACD245-87F0-4E42-8796-9A6D4A5601AC}" name="Label"/>
     <tableColumn id="4" xr3:uid="{6047115E-1317-439D-8A39-731EF6CBD8D6}" name="Couleur"/>
     <tableColumn id="5" xr3:uid="{23997F80-93D3-495C-8A49-E011015E172C}" name="_Connecteur"/>
     <tableColumn id="8" xr3:uid="{0AEFF710-1268-4947-8ED0-86B709831BCD}" name="_Pin"/>
+    <tableColumn id="6" xr3:uid="{D2895A61-624D-41E8-A8AD-25D534EEAC06}" name="_Composant"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8510A6EA-C510-484E-BD07-0C5984C960C6}" name="Tableau7" displayName="Tableau7" ref="A1:J10" totalsRowShown="0">
-  <autoFilter ref="A1:J10" xr:uid="{8510A6EA-C510-484E-BD07-0C5984C960C6}"/>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{943CF03E-F8C3-4F56-9232-C138633E3A6C}" name="Tableau4" displayName="Tableau4" ref="A1:F6" totalsRowShown="0">
+  <autoFilter ref="A1:F6" xr:uid="{943CF03E-F8C3-4F56-9232-C138633E3A6C}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4570A452-1676-418D-BCBD-C15E1101A905}" name="ID"/>
+    <tableColumn id="2" xr3:uid="{7D4B2CD3-10FB-4FA5-9E28-94D19BD253A1}" name="Nom"/>
+    <tableColumn id="3" xr3:uid="{7C367F16-172F-4F97-B32A-158EE76A3FCC}" name="Value"/>
+    <tableColumn id="4" xr3:uid="{F14038FA-5E9E-4CDC-BADC-B62586E6CE2E}" name="Label"/>
+    <tableColumn id="5" xr3:uid="{CE6FEE61-44D5-4559-8003-CA7C9C8AFBAA}" name="Reference Fabricant"/>
+    <tableColumn id="6" xr3:uid="{62B35DA8-CAFE-4F38-80F5-027225DFDF64}" name="Reference Interne"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{8510A6EA-C510-484E-BD07-0C5984C960C6}" name="Tableau7" displayName="Tableau7" ref="A1:K10" totalsRowShown="0">
+  <autoFilter ref="A1:K10" xr:uid="{8510A6EA-C510-484E-BD07-0C5984C960C6}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{A139C00F-BDF5-4F98-910C-1233F244E16A}" name="ID"/>
     <tableColumn id="11" xr3:uid="{72E979BA-5E21-4CDB-B6B8-2EF8B6061331}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{04DEBF82-855A-4806-9F1E-F74218DA59E7}" name="Label"/>
@@ -386,12 +529,13 @@
     <tableColumn id="7" xr3:uid="{43902B53-6310-449D-9000-19F3A6A56D1E}" name="_Type Cable"/>
     <tableColumn id="9" xr3:uid="{0DE37586-971B-4245-9872-FACF4A0EDC04}" name="Interface From"/>
     <tableColumn id="10" xr3:uid="{EF6894D1-576F-4328-97C9-D685D862DA02}" name="Interface To"/>
+    <tableColumn id="4" xr3:uid="{D752E83F-DDEB-4C90-A460-A3D7BD574339}" name="Couleur"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{63A88328-BC12-45E2-9816-7ADC5CC884C3}" name="Tableau9" displayName="Tableau9" ref="A1:D8" totalsRowShown="0">
   <autoFilter ref="A1:D8" xr:uid="{63A88328-BC12-45E2-9816-7ADC5CC884C3}"/>
   <tableColumns count="4">
@@ -667,17 +811,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45F96FC2-6F44-473D-8938-4775C57A43B1}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -689,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,10 +841,29 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -712,79 +875,65 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4BDD0AF-DC4F-4CC8-9D7C-30FF14FFE12A}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="1" max="2" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -795,21 +944,143 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3501FACA-8F4E-4E45-B920-CE4D5C7148F9}">
-  <dimension ref="A1:E3"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78355EA3-A40A-4F77-BEA9-EE619714207F}">
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4A6CF278-8CE5-4789-A855-6A22C2F49A90}">
+          <x14:formula1>
+            <xm:f>'Types Connecteurs'!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="4" max="5" width="21.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -820,13 +1091,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -834,7 +1105,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -842,7 +1122,66 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -854,22 +1193,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EC2F73-6E55-4B9A-B1D4-60563BE9470C}">
-  <dimension ref="A1:G9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3501FACA-8F4E-4E45-B920-CE4D5C7148F9}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,207 +1216,61 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1086,21 +1279,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78355EA3-A40A-4F77-BEA9-EE619714207F}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56EC2F73-6E55-4B9A-B1D4-60563BE9470C}">
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1108,29 +1303,740 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin molex femelle 1 A</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
+      <c r="B3" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin molex femelle 2 B</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin molex femelle 3 C</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin molex femelle 4 D</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin molex femelle 5 E</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin molex femelle 6 F</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin banane male pour XT60 1 +</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin banane male pour XT60 2 GND</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Fiche à souder 1 1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Fiche à souder 2 2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Fiche à souder 3 3</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin molex femelle 1 1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin molex femelle 2 2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin molex femelle 3 3</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin banane male pour XT30 1 +</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin banane male pour XT30 2 GND</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin banane femelle pour XT30 1 +</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="str">
+        <f>Tableau10[[#This Row],[_Type Pin]]&amp;" "&amp;Tableau10[[#This Row],[Numero]]&amp;" "&amp;Tableau10[[#This Row],[Label]]</f>
+        <v>Pin banane femelle pour XT30 2 GND</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BAFEF0D7-A490-4155-B1EA-4D1E959BF035}">
+          <x14:formula1>
+            <xm:f>'Types Pins'!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2469C-D8D2-4F63-BF8C-5171F1119C5D}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="68.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="46.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>Vin Batt red Cable batterie Souriau Output Pin molex femelle 1 A</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>GND black Cable batterie Souriau Output Pin molex femelle 3 C</v>
       </c>
       <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>Vin Batt red Cable batterie XT60 Input Pin banane male pour XT60 1 +</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>GND black Cable batterie XT60 Input Pin banane male pour XT60 2 GND</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>SW_NO yellow Faisceau commutateur - Interrupteur Fiche à souder 1 1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>Vbat red Faisceau commutateur - Interrupteur Fiche à souder 2 2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>SW_COM orange Faisceau commutateur - Interrupteur Fiche à souder 3 3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>SW_NO yellow Faisceau commutateur - Molex 3 pts Pin molex femelle 1 1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>Vbat red Faisceau commutateur - Molex 3 pts Pin molex femelle 2 2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>SW_COM orange Faisceau commutateur - Molex 3 pts Pin molex femelle 3 3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>Vin Batt red XT30 - 1 cable Y Pin banane male pour XT30 1 +</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>GND black XT30 - 1 cable Y Pin banane male pour XT30 2 GND</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>Vin Batt red XT30 - 2 cable Y Pin banane femelle pour XT30 1 +</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>GND black XT30 - 2 cable Y Pin banane femelle pour XT30 2 GND</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>Vin Batt red XT30 - 3 cable Y Pin banane femelle pour XT30 1 +</v>
+      </c>
+      <c r="C16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Tableau11[[#This Row],[Label]]&amp;" "&amp;Tableau11[[#This Row],[Couleur]]&amp;" "&amp;Tableau11[[#This Row],[_Connecteur]]&amp;" "&amp; Tableau11[[#This Row],[_Pin]]</f>
+        <v>GND black XT30 - 3 cable Y Pin banane femelle pour XT30 2 GND</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1138,24 +2044,51 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{24D43721-7F97-467A-BF33-D1945DCEE452}">
+          <x14:formula1>
+            <xm:f>Connecteurs!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CF03E86D-8681-4AFD-A49F-EA854B82F972}">
+          <x14:formula1>
+            <xm:f>Pins!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C3EC7D73-2A03-4ACD-8A41-E818EF5DCC60}">
+          <x14:formula1>
+            <xm:f>Couleurs!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{ABE22152-E789-45D8-AD33-2DA6EEA0B41F}">
+          <x14:formula1>
+            <xm:f>Composants!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA2469C-D8D2-4F63-BF8C-5171F1119C5D}">
-  <dimension ref="A1:F5"/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96DD63EE-3443-44EF-BF68-636C0FDE1947}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,16 +2099,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1183,19 +2116,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1203,152 +2130,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF81E09-7BBF-4E8D-96D2-E8E7143C86EF}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="41" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2">
-        <v>300</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1361,11 +2143,255 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C005ED0-7A06-4AC5-BEC8-5B0D9BED72AC}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CF81E09-7BBF-4E8D-96D2-E8E7143C86EF}">
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="99.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Tableau7[[#This Row],[Longeur]]&amp; " "&amp;Tableau7[[#This Row],[From Connecteur]]&amp;" "&amp;Tableau7[[#This Row],[To Connecteur]]&amp;" "&amp;Tableau7[[#This Row],[_Cable]]</f>
+        <v>300 Cable batterie Souriau Output Cable batterie XT60 Input Cable batterie</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>300</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Tableau7[[#This Row],[Longeur]]&amp; " "&amp;Tableau7[[#This Row],[From Connecteur]]&amp;" "&amp;Tableau7[[#This Row],[To Connecteur]]&amp;" "&amp;Tableau7[[#This Row],[_Cable]]</f>
+        <v>150 Faisceau commutateur - Interrupteur Faisceau commutateur - Molex 3 pts FAISCEAU COMMUTATEUR M/A</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Tableau7[[#This Row],[Longeur]]&amp; " "&amp;Tableau7[[#This Row],[From Connecteur]]&amp;" "&amp;Tableau7[[#This Row],[To Connecteur]]&amp;" "&amp;Tableau7[[#This Row],[_Cable]]</f>
+        <v>0 XT30 - 1 cable Y XT30 - 2 cable Y CableY XT30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Tableau7[[#This Row],[Longeur]]&amp; " "&amp;Tableau7[[#This Row],[From Connecteur]]&amp;" "&amp;Tableau7[[#This Row],[To Connecteur]]&amp;" "&amp;Tableau7[[#This Row],[_Cable]]</f>
+        <v>0 XT30 - 2 cable Y XT30 - 3 cable Y CableY XT30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{899573A8-7B2E-4551-9D3A-81C3E418671F}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B89BEDB3-1BDB-4A10-97DC-3C246805EA84}">
+          <x14:formula1>
+            <xm:f>Connecteurs!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DFD3817A-B7EE-4807-8EBA-9B5041BAB963}">
+          <x14:formula1>
+            <xm:f>Cables!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0D07A39F-EA15-4AD1-8594-C998FC650D70}">
+          <x14:formula1>
+            <xm:f>'Types Cables'!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2:H1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{164864A2-A1CB-4B95-A390-BD53F2EC9A56}">
+          <x14:formula1>
+            <xm:f>Couleurs!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>K2:K1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C005ED0-7A06-4AC5-BEC8-5B0D9BED72AC}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,10 +2410,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1395,10 +2421,26 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
